--- a/biology/Biochimie/Acide_glycérique/Acide_glycérique.xlsx
+++ b/biology/Biochimie/Acide_glycérique/Acide_glycérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acide_glyc%C3%A9rique</t>
+          <t>Acide_glycérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’acide glycérique est un composé organique de formule chimique HOH2C–CHOH–COOH. Il s'agit d'un ose acide naturel à trois atomes de carbone dont les esters avec des phosphates sont d'importants métabolites, notamment de la glycolyse.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acide_glyc%C3%A9rique</t>
+          <t>Acide_glycérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Stéréochimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'acide glycérique possède un atome de carbone asymétique et donc est le mélange racémique de deux énantiomères :
-l 'acide D-glycérique de configuration absolue R, numéro CAS 473-81-4[2]
+l 'acide D-glycérique de configuration absolue R, numéro CAS 473-81-4
 l'acide L-glycérique ou S-glycérique, numéro CAS ?</t>
         </is>
       </c>
